--- a/Mining/PPO_companies.xlsx
+++ b/Mining/PPO_companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Things\Practice\Mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4408038-33E8-45D6-8F21-C1D9462C6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9277D5-3496-4326-8AEB-B35D2301A830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,11 +475,12 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.44140625" customWidth="1"/>
   </cols>
